--- a/Base/Teams/Chargers/Target Depth Data.xlsx
+++ b/Base/Teams/Chargers/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="C3">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="D3">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="C3">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Chargers/Target Depth Data.xlsx
+++ b/Base/Teams/Chargers/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="C2">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="C2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>5</v>

--- a/Base/Teams/Chargers/Target Depth Data.xlsx
+++ b/Base/Teams/Chargers/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="C2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="D2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="C2">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>5</v>

--- a/Base/Teams/Chargers/Target Depth Data.xlsx
+++ b/Base/Teams/Chargers/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="C3">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="D3">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="C3">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Chargers/Target Depth Data.xlsx
+++ b/Base/Teams/Chargers/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="C2">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="C2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>7</v>

--- a/Base/Teams/Chargers/Target Depth Data.xlsx
+++ b/Base/Teams/Chargers/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="C3">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="C3">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>4</v>
